--- a/CDM Content/Digital Building Twin/CDM_GGeneratingObject.xlsx
+++ b/CDM Content/Digital Building Twin/CDM_GGeneratingObject.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://buildingminds1.sharepoint.com/sites/CDM-testteam/Freigegebene Dokumente/General/CDM Content/Digital Building Twin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8C7FB770-161C-0641-9A02-F1CC8840AB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B078ABFC-95DA-0D49-BB2E-D6A9368A5971}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8C7FB770-161C-0641-9A02-F1CC8840AB64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{919600EA-3CAA-9D49-B495-A19B671EA821}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{85083611-9EE2-4F48-BB3D-6A0A91DF77F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>ConstructionStandards</t>
   </si>
   <si>
-    <t>ContainerColume</t>
-  </si>
-  <si>
     <t>ContainingFeces</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>RotorDiameter</t>
   </si>
   <si>
-    <t>SafuFallProtection</t>
-  </si>
-  <si>
     <t>SpeedControl</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>ApplicationArea</t>
+  </si>
+  <si>
+    <t>ContainerVolume</t>
+  </si>
+  <si>
+    <t>SafeFallProtection</t>
   </si>
 </sst>
 </file>
@@ -222,9 +222,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3D4E98-1349-EF46-83A9-BEA8BC5DB549}">
-  <dimension ref="A1:AZ86"/>
+  <dimension ref="A1:AY86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,178 +559,166 @@
     <col min="35" max="36" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
@@ -743,12 +732,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ABB3787A39AC7946B91DE94D6169D5E4" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c3b2cc69efe0420e2057b4cbb3381b2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da2ca412-be8f-4031-b82f-0db1c7fd28cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918d4b4cb84e834350b9c914eb39184c" ns2:_="">
     <xsd:import namespace="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
@@ -932,7 +915,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -941,23 +924,13 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A797378-2486-4B5B-8D97-E649A40E509B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -975,10 +948,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A24C1D-9994-4866-9989-C63206960D55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B31AB8-993E-4D4B-AEA8-7989F5843AC8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="da2ca412-be8f-4031-b82f-0db1c7fd28cd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>